--- a/Populating pptx files/02 Workflows/02_Replacement/ppt/embeddings/Microsoft_Excel_Worksheet1.xlsx
+++ b/Populating pptx files/02 Workflows/02_Replacement/ppt/embeddings/Microsoft_Excel_Worksheet1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr documentId="13_ncr:801_{3701C740-069D-4E4F-8C93-74AD1406A13D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BB6AFA06-DAA6-471A-8A6C-CDF788CC01A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="3300" windowWidth="10120" xWindow="8490" xr2:uid="{7FA4EE6C-582E-4503-BD5A-20FB15D73B36}" yWindow="2010"/>
+    <workbookView xWindow="8490" yWindow="2010" windowWidth="10120" windowHeight="3300" xr2:uid="{7FA4EE6C-582E-4503-BD5A-20FB15D73B36}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
   <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Series 1</t>
   </si>
@@ -33,42 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>{9}</t>
-  </si>
-  <si>
-    <t>{10}</t>
-  </si>
-  <si>
-    <t>{11}</t>
-  </si>
-  <si>
-    <t>{12}</t>
-  </si>
-  <si>
-    <t>{13}</t>
-  </si>
-  <si>
-    <t>{14}</t>
-  </si>
-  <si>
-    <t>{15}</t>
-  </si>
-  <si>
-    <t>{16}</t>
-  </si>
-  <si>
-    <t>{17}</t>
-  </si>
-  <si>
-    <t>{18}</t>
-  </si>
-  <si>
-    <t>{19}</t>
-  </si>
-  <si>
-    <t>{20}</t>
   </si>
 </sst>
 </file>
@@ -102,17 +66,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -432,89 +395,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D33647-1E35-4D54-AAAC-741494C1AB1E}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" customWidth="1"/>
+    <col min="2" max="4" width="9.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Series 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Series 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Series 3</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>2016</v>
       </c>
-      <c r="B2" s="1">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1">
-        <v>3</v>
+      <c r="B2">
+        <v>1005</v>
+      </c>
+      <c r="C2">
+        <v>1009</v>
+      </c>
+      <c r="D2">
+        <v>1013</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>2017</v>
       </c>
-      <c r="B3" s="1">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1">
-        <v>6</v>
+      <c r="B3">
+        <v>1006</v>
+      </c>
+      <c r="C3">
+        <v>1010</v>
+      </c>
+      <c r="D3">
+        <v>1014</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>2018</v>
       </c>
-      <c r="B4" s="1">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1">
-        <v>7</v>
+      <c r="B4">
+        <v>1007</v>
+      </c>
+      <c r="C4">
+        <v>1011</v>
+      </c>
+      <c r="D4">
+        <v>1015</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>2019</v>
       </c>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>5</v>
+      <c r="B5">
+        <v>1008</v>
+      </c>
+      <c r="C5">
+        <v>1012</v>
+      </c>
+      <c r="D5">
+        <v>1016</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>